--- a/PJ管理/テスト仕様書サンプル/テスト仕様書兼報告書_サムネイル表示.xlsx
+++ b/PJ管理/テスト仕様書サンプル/テスト仕様書兼報告書_サムネイル表示.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\テスト仕様書サンプル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DFEBB5-724C-4F65-AE82-F89CD70B29C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066E9EB1-31C2-494B-ACDC-30A23DCBD74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -315,13 +315,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検索結果画面の「検索結果」リスト</t>
-    <rPh sb="8" eb="12">
-      <t>ケンサクケッカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -458,38 +451,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「図面」</t>
-    <rPh sb="1" eb="3">
-      <t>ズメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ファイル名前」</t>
-    <rPh sb="5" eb="7">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.チェックボックスは非表示する。
-2.図面とファイル名前は使用できません。</t>
-    <rPh sb="11" eb="14">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ファイルは正常にダウンロードできる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ボタン動作確認</t>
     <rPh sb="3" eb="7">
       <t>ドウサカクニン</t>
@@ -497,49 +458,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>参照権限がない場合</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>参照権限があり場合</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データ転送</t>
-    <rPh sb="3" eb="5">
-      <t>テンソウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面内</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面間</t>
-    <rPh sb="0" eb="3">
-      <t>ガメンカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サムネイル表示画面</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>印刷指示画面</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -551,6 +470,314 @@
   </si>
   <si>
     <t>サムネイル表示画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>条件なし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.サムネイルサイズに伴い図面の表示サーズが変化する。
+2.「USER_MASTER」テーブルの「THUMBNAIL_SIZE」は正常に更新する。</t>
+    <rPh sb="11" eb="12">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サムネイル表示画面
+※正常系</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>セイジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>印刷指示画面
+※正常系</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「出力」</t>
+    <rPh sb="1" eb="3">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「キャンセル」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サムネイル表示画面へ正常に遷移する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参照権限がない場合</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データを選択する場合</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.メッセージは正常に表示する。
+2.テーブル「oj1.SUBMIT_JOB、oj1.SUBMIT_RECIPIENT、oj1.SUBMIT_DOCUMENT」は正常に表示する。</t>
+    <rPh sb="8" eb="10">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サムネイル表示画面
+※異常系</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>イジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>図面は正常にダウンロードできる。</t>
+    <rPh sb="0" eb="2">
+      <t>ズメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「図面」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「リスト表示」ボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参照権限があり場合。
+かつ、図面があり場合</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参照権限があり場合。
+かつ、図面がない場合</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.エラーメッセージは正常に表示する。
+2.図面のダウンロードに失敗する。</t>
+    <rPh sb="11" eb="13">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ズメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ファイル名前」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.図面は使用できません。
+2.図面は「NotAccess_thumb.jpg」と一致する。</t>
+    <rPh sb="13" eb="15">
+      <t>ズメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.図面は使用できる。
+2.図面は正常に表示する。</t>
+    <rPh sb="2" eb="4">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.図面は使用できる。
+2.図面は「NotFound_thumb.jpg」と一致する。</t>
+    <rPh sb="14" eb="16">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.チェックボックスは非表示する。
+2.ファイル名前は使用できません。</t>
+    <rPh sb="24" eb="26">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.チェックボックスは表示する。
+2.ファイル名前は使用できる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「図面」、
+「ファイル名前」</t>
+    <rPh sb="1" eb="3">
+      <t>ズメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「図面」、
+「ファイル名前」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「検索結果」リストから図面を選択する。
+かつ、選択した図面の印刷権限がない。</t>
+    <rPh sb="11" eb="13">
+      <t>ズメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「検索結果」リストの図面が選択されていません。</t>
+    <rPh sb="10" eb="12">
+      <t>ズメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「検索結果」リストから図面を選択する。かつ、選択した図面はTIFF図面ではありません。</t>
+    <rPh sb="11" eb="13">
+      <t>ズメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「検索結果」リストから図面を選択する。
+かつ、選択した図面の印刷権限があり。
+かつ、選択した図面はTIFF図面です。</t>
+    <rPh sb="11" eb="13">
+      <t>ズメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「検索結果」リスト</t>
+    <rPh sb="1" eb="5">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.印刷指示画面へ正常に遷移する。
+2.印刷指示画面の「検索結果」リストのデータは検索結果画面の「検索結果」リストのデータ通り。</t>
+    <rPh sb="9" eb="11">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.印刷指示画面へ正常に遷移する。
+2.エラーメッセージと戻るボタンのみ表示される。
+3.エラーメッセージの内容と予想通り。</t>
+    <rPh sb="29" eb="30">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>ヨソウトオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「出力」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>印刷指示画面
+※異常系</t>
+    <rPh sb="8" eb="11">
+      <t>イジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.エラーメッセージと戻るボタンのみ表示される。
+2.エラーメッセージの内容と予想通り。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>印刷指示画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「サムネイルサイズ」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「出力プロッタ」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デフォルトは検索結果画面で設定されているプロッタ。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -628,7 +855,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -745,6 +972,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -752,7 +990,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -802,6 +1040,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -842,15 +1095,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1139,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -1150,7 +1403,7 @@
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="31.25" style="1" customWidth="1"/>
     <col min="4" max="11" width="14.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="85" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.25" style="2" customWidth="1"/>
     <col min="15" max="15" width="12.75" style="2" bestFit="1" customWidth="1"/>
@@ -1160,19 +1413,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -1182,10 +1435,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1197,22 +1450,22 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:17" ht="37.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
@@ -1224,17 +1477,17 @@
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="9" t="s">
         <v>7</v>
       </c>
@@ -1269,11 +1522,9 @@
         <v>20</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -1291,7 +1542,7 @@
     </row>
     <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A8" s="10">
-        <f t="shared" ref="A8:A30" si="0">ROW(A2)</f>
+        <f t="shared" ref="A8:A35" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="B8" s="12"/>
@@ -1307,10 +1558,10 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N8" s="14"/>
       <c r="O8" s="15"/>
@@ -1335,174 +1586,132 @@
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="15"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="16"/>
     </row>
-    <row r="10" spans="1:17" ht="111" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A10" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
-      <c r="D10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="D10" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="N10" s="14"/>
       <c r="O10" s="15"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="16"/>
     </row>
-    <row r="11" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A11" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>39</v>
+      <c r="L11" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>73</v>
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="15"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="16"/>
     </row>
-    <row r="12" spans="1:17" ht="63" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A12" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>34</v>
+      <c r="L12" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>74</v>
       </c>
       <c r="N12" s="14"/>
       <c r="O12" s="15"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="16"/>
     </row>
-    <row r="13" spans="1:17" ht="126.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A13" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="D13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="N13" s="14"/>
       <c r="O13" s="15"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A14" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -1510,74 +1719,92 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>48</v>
+      <c r="L14" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>76</v>
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="15"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="111" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N15" s="14"/>
       <c r="O15" s="15"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="16"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" ht="66" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="C16" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="D16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" s="32" t="s">
-        <v>53</v>
+      <c r="L16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="15"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="16"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A17" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1585,59 +1812,81 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="33"/>
+      <c r="L17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="N17" s="14"/>
       <c r="O17" s="15"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="16"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" ht="126.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="K18" s="11"/>
-      <c r="L18" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="M18" s="32" t="s">
-        <v>54</v>
+      <c r="L18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="15"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="16"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A19" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="D19" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
@@ -1646,23 +1895,27 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="33"/>
+      <c r="L19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="N19" s="14"/>
       <c r="O19" s="15"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="16"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A20" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -1670,21 +1923,27 @@
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="13"/>
+      <c r="L20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="N20" s="14"/>
       <c r="O20" s="15"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="16"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A21" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="11"/>
+      <c r="D21" s="17" t="s">
+        <v>77</v>
+      </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -1692,21 +1951,27 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="13"/>
+      <c r="L21" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>65</v>
+      </c>
       <c r="N21" s="14"/>
       <c r="O21" s="15"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="16"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A22" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -1714,21 +1979,29 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="32"/>
+      <c r="L22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="N22" s="14"/>
       <c r="O22" s="15"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="16"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A23" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -1736,25 +2009,27 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="33"/>
+      <c r="L23" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="N23" s="14"/>
       <c r="O23" s="15"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="16"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -1762,21 +2037,29 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="32"/>
+      <c r="L24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="N24" s="14"/>
       <c r="O24" s="15"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="16"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A25" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -1784,21 +2067,27 @@
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="33"/>
+      <c r="L25" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="N25" s="14"/>
       <c r="O25" s="15"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="16"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A26" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -1806,25 +2095,25 @@
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="13"/>
+      <c r="L26" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="N26" s="14"/>
       <c r="O26" s="15"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="16"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A27" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -1832,21 +2121,23 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="13"/>
+      <c r="L27" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M27" s="38"/>
       <c r="N27" s="14"/>
       <c r="O27" s="15"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="16"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -1854,23 +2145,27 @@
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="13"/>
+      <c r="L28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M28" s="21"/>
       <c r="N28" s="14"/>
       <c r="O28" s="15"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="16"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A29" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B29" s="12"/>
-      <c r="C29" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="11"/>
+      <c r="C29" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -1878,14 +2173,18 @@
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="13"/>
+      <c r="L29" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="N29" s="14"/>
       <c r="O29" s="15"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="16"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A30" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1900,23 +2199,152 @@
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="13"/>
+      <c r="L30" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M30" s="38"/>
       <c r="N30" s="14"/>
       <c r="O30" s="15"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="16"/>
     </row>
+    <row r="31" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A31" s="10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M31" s="21"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="32" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A32" s="10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N32" s="14"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="16"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33" s="10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="N33" s="14"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="16"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="16"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35" s="10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M18:M19"/>
+  <mergeCells count="11">
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="M26:M28"/>
+    <mergeCell ref="D26:D28"/>
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:B2"/>

--- a/PJ管理/テスト仕様書サンプル/テスト仕様書兼報告書_サムネイル表示.xlsx
+++ b/PJ管理/テスト仕様書サンプル/テスト仕様書兼報告書_サムネイル表示.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\テスト仕様書サンプル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066E9EB1-31C2-494B-ACDC-30A23DCBD74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6994A8C-26C4-4A99-94DF-B98C7F557FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -778,6 +778,51 @@
   </si>
   <si>
     <t>デフォルトは検索結果画面で設定されているプロッタ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「図番削除」</t>
+    <rPh sb="1" eb="3">
+      <t>ズバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ファイル出力」</t>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「マルチPDF出力」</t>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「PDF単独zip出力」</t>
+    <rPh sb="4" eb="6">
+      <t>タンドク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アクセスレベル変更」</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「検索結果」リストから図面を選択する。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1044,17 +1089,29 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1093,18 +1150,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1392,40 +1437,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="31.25" style="1" customWidth="1"/>
-    <col min="4" max="11" width="14.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="33.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="85" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.25" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="2" customWidth="1"/>
-    <col min="17" max="17" width="45.875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="14.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="33.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="85" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="45.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:16" ht="23.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -1434,11 +1480,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1449,25 +1495,25 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-    </row>
-    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="31" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-    </row>
-    <row r="6" spans="1:17" ht="37.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:16" ht="37.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
@@ -1477,34 +1523,33 @@
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="M6" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A7" s="10">
         <f>ROW(A1)</f>
         <v>1</v>
@@ -1528,21 +1573,20 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="L7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="16"/>
-    </row>
-    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="M7" s="14"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A8" s="10">
-        <f t="shared" ref="A8:A35" si="0">ROW(A2)</f>
+        <f t="shared" ref="A8:A38" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="B8" s="12"/>
@@ -1556,19 +1600,18 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="L8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="16"/>
-    </row>
-    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="M8" s="14"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1584,26 +1627,25 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="L9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="16"/>
-    </row>
-    <row r="10" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="M9" s="14"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A10" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="23" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="11"/>
@@ -1612,78 +1654,75 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="L10" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="16"/>
-    </row>
-    <row r="11" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="M10" s="14"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A11" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="37"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="35" t="s">
+      <c r="K11" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M11" s="36" t="s">
+      <c r="L11" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="16"/>
-    </row>
-    <row r="12" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="M11" s="14"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A12" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="19"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="35" t="s">
+      <c r="K12" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="M12" s="36" t="s">
+      <c r="L12" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="N12" s="14"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="16"/>
-    </row>
-    <row r="13" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="M12" s="14"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A13" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="23" t="s">
         <v>71</v>
       </c>
       <c r="E13" s="11"/>
@@ -1692,45 +1731,43 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="L13" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="16"/>
-    </row>
-    <row r="14" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A14" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="37"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="35" t="s">
+      <c r="K14" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="M14" s="36" t="s">
+      <c r="L14" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="16"/>
-    </row>
-    <row r="15" spans="1:17" ht="111" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M14" s="14"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:16" ht="111" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1752,19 +1789,18 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11" t="s">
+      <c r="K15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="L15" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="16"/>
-    </row>
-    <row r="16" spans="1:17" ht="66" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M15" s="14"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1792,19 +1828,18 @@
         <v>28</v>
       </c>
       <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11" t="s">
+      <c r="K16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="L16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="14"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="16"/>
-    </row>
-    <row r="17" spans="1:17" ht="63" x14ac:dyDescent="0.4">
+      <c r="M16" s="14"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="16"/>
+    </row>
+    <row r="17" spans="1:16" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A17" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1822,19 +1857,18 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11" t="s">
+      <c r="K17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="13" t="s">
+      <c r="L17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="N17" s="14"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="16"/>
-    </row>
-    <row r="18" spans="1:17" ht="126.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="16"/>
+    </row>
+    <row r="18" spans="1:16" ht="126.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1862,19 +1896,18 @@
       <c r="J18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11" t="s">
+      <c r="K18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="13" t="s">
+      <c r="L18" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="16"/>
-    </row>
-    <row r="19" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="M18" s="14"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="16"/>
+    </row>
+    <row r="19" spans="1:16" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A19" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1894,19 +1927,18 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11" t="s">
+      <c r="K19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="13" t="s">
+      <c r="L19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="N19" s="14"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="16"/>
-    </row>
-    <row r="20" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="16"/>
+    </row>
+    <row r="20" spans="1:16" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A20" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1922,19 +1954,18 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11" t="s">
+      <c r="K20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="L20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="16"/>
-    </row>
-    <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="16"/>
+    </row>
+    <row r="21" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A21" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1950,19 +1981,18 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="35" t="s">
+      <c r="K21" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M21" s="36" t="s">
+      <c r="L21" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="N21" s="14"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="16"/>
-    </row>
-    <row r="22" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="M21" s="14"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="16"/>
+    </row>
+    <row r="22" spans="1:16" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A22" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1978,29 +2008,26 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11" t="s">
+      <c r="K22" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="M22" s="13" t="s">
+      <c r="L22" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="N22" s="14"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="16"/>
-    </row>
-    <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="M22" s="14"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="16"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B23" s="12"/>
-      <c r="C23" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="C23" s="11"/>
       <c r="D23" s="11" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -2008,27 +2035,23 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="N23" s="14"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="16"/>
-    </row>
-    <row r="24" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K23" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="16"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="11" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -2036,29 +2059,22 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="M24" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="N24" s="14"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="16"/>
-    </row>
-    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="K24" s="24"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="16"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A25" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B25" s="12"/>
-      <c r="C25" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -2066,27 +2082,22 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="N25" s="14"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="16"/>
-    </row>
-    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="K25" s="24"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="16"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="18" t="s">
-        <v>58</v>
+      <c r="D26" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -2094,77 +2105,74 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="M26" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="N26" s="14"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="16"/>
-    </row>
-    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="K26" s="24"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="16"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="37"/>
+      <c r="D27" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="16"/>
-    </row>
-    <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K27" s="25"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="16"/>
+    </row>
+    <row r="28" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A28" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B28" s="12"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="19"/>
+      <c r="C28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M28" s="21"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="16"/>
-    </row>
-    <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="K28" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M28" s="14"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="16"/>
+    </row>
+    <row r="29" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B29" s="12"/>
-      <c r="C29" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="C29" s="12"/>
       <c r="D29" s="11" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -2172,185 +2180,269 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="M29" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="16"/>
-    </row>
-    <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="K29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29" s="14"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="16"/>
+    </row>
+    <row r="30" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A30" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="11"/>
+      <c r="C30" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M30" s="38"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="16"/>
-    </row>
-    <row r="31" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="K30" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="M30" s="14"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="16"/>
+    </row>
+    <row r="31" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A31" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="D31" s="23" t="s">
+        <v>58</v>
+      </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M31" s="21"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="16"/>
-    </row>
-    <row r="32" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="K31" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="M31" s="14"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="16"/>
+    </row>
+    <row r="32" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A32" s="10">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>90</v>
-      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M32" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="N32" s="14"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="16"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K32" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32" s="21"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="16"/>
+    </row>
+    <row r="33" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="10">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B33" s="12"/>
-      <c r="C33" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M33" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="N33" s="14"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="16"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K33" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L33" s="22"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="16"/>
+    </row>
+    <row r="34" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A34" s="10">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B34" s="12"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="C34" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>86</v>
+      </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="16"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K34" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="M34" s="14"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="16"/>
+    </row>
+    <row r="35" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A35" s="10">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="11"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="16"/>
+      <c r="K35" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35" s="21"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="16"/>
+    </row>
+    <row r="36" spans="1:16" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A36" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L36" s="22"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="16"/>
+    </row>
+    <row r="37" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A37" s="10">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" s="14"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="16"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A38" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="M38" s="14"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="M26:M28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D6:L6"/>
+  <mergeCells count="13">
+    <mergeCell ref="D6:K6"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="K23:K27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PJ管理/テスト仕様書サンプル/テスト仕様書兼報告書_サムネイル表示.xlsx
+++ b/PJ管理/テスト仕様書サンプル/テスト仕様書兼報告書_サムネイル表示.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\テスト仕様書サンプル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6994A8C-26C4-4A99-94DF-B98C7F557FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC689A9-D728-4B0E-9690-2ADC07F88A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サムネイル表示" sheetId="2" r:id="rId1"/>
+    <sheet name="No.1" sheetId="3" r:id="rId2"/>
+    <sheet name="No.2" sheetId="4" r:id="rId3"/>
+    <sheet name="No.3" sheetId="5" r:id="rId4"/>
+    <sheet name="No.4" sheetId="6" r:id="rId5"/>
+    <sheet name="No.5" sheetId="7" r:id="rId6"/>
+    <sheet name="No.6" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="120">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -270,21 +276,6 @@
   <si>
     <t>検索結果画面の「検索結果」リストにデータが存在する。
 かつ、正常なデータが選択されている。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.これらの項目の位置は予想通り。
-2.「サムネイル表示」ボタンは表示する。
-3.「サムネイルサイズラベル、サムネイルサイズチョイス、リスト表示ボタン」は非表示する。</t>
-    <rPh sb="6" eb="8">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="77" eb="80">
-      <t>ヒヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -302,13 +293,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>条件なし</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面初期表示</t>
     <rPh sb="0" eb="4">
       <t>ガメンショキ</t>
@@ -338,13 +322,6 @@
   </si>
   <si>
     <t>ユーザーのサムネイるサイズが設定しません。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>languageはEnglish場合</t>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -458,10 +435,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>参照権限があり場合</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>チョイス動作確認</t>
     <rPh sb="4" eb="8">
       <t>ドウサカクニン</t>
@@ -470,10 +443,6 @@
   </si>
   <si>
     <t>サムネイル表示画面</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>条件なし</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -528,23 +497,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>参照権限がない場合</t>
-    <rPh sb="0" eb="2">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データを選択する場合</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1.メッセージは正常に表示する。
 2.テーブル「oj1.SUBMIT_JOB、oj1.SUBMIT_RECIPIENT、oj1.SUBMIT_DOCUMENT」は正常に表示する。</t>
     <rPh sb="8" eb="10">
@@ -587,20 +539,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「リスト表示」ボタン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>参照権限があり場合。
-かつ、図面があり場合</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>参照権限があり場合。
-かつ、図面がない場合</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1.エラーメッセージは正常に表示する。
 2.図面のダウンロードに失敗する。</t>
     <rPh sb="11" eb="13">
@@ -619,45 +557,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.図面は使用できません。
-2.図面は「NotAccess_thumb.jpg」と一致する。</t>
-    <rPh sb="13" eb="15">
-      <t>ズメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.図面は使用できる。
-2.図面は正常に表示する。</t>
-    <rPh sb="2" eb="4">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.図面は使用できる。
-2.図面は「NotFound_thumb.jpg」と一致する。</t>
-    <rPh sb="14" eb="16">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>イッチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1.チェックボックスは非表示する。
 2.ファイル名前は使用できません。</t>
     <rPh sb="24" eb="26">
@@ -684,23 +583,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「検索結果」リストから図面を選択する。
-かつ、選択した図面の印刷権限がない。</t>
-    <rPh sb="11" eb="13">
-      <t>ズメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「検索結果」リストの図面が選択されていません。</t>
     <rPh sb="10" eb="12">
-      <t>ズメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「検索結果」リストから図面を選択する。かつ、選択した図面はTIFF図面ではありません。</t>
-    <rPh sb="11" eb="13">
       <t>ズメン</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -791,38 +675,323 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>「検索結果」リストから図面を選択する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面は正常に遷移し、データは正常に表示される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アクセスレベル変更」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>「ファイル出力」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「マルチPDF出力」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「PDF単独zip出力」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルは正常にダウンロード、データは予想通り。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>図番削除画面
+※正常系</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「削除」</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>図番削除画面
+※異常系</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>イジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ファイルは正常に遷移する。
+2.元のファイルは正常に削除する。
+3.テーブル「FILE_DB」のデータは正常に削除する。
+4.メッセージは正常に表示する。</t>
+    <rPh sb="7" eb="9">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>元のファイルが存在しない。</t>
+    <rPh sb="7" eb="9">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.エラーメッセージは正常に表示する。
+2.ファイルの遷移に失敗する。
+3.元のファイルの削除に失敗する。
+4.テーブル「FILE_DB」のデータの削除に失敗する。</t>
+    <rPh sb="11" eb="13">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>元のファイルが存在する。しかし、ファイルの遷移は問題があります。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「リスト表示」ボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「サムネイルサイズ」チョイス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参照権限がない場合。</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参照権限があり場合。
+かつ、図面があり場合。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参照権限があり場合。
+かつ、図面がない場合。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参照権限があり場合。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>条件なし。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>languageはEnglish場合。</t>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>条件なし。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データを選択する場合。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>条件なし。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー情報確認</t>
+    <rPh sb="4" eb="8">
+      <t>ジョウホウカクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サムネイル表示画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウト画面に遷移する。</t>
     <rPh sb="5" eb="7">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「マルチPDF出力」</t>
-    <rPh sb="7" eb="9">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「PDF単独zip出力」</t>
-    <rPh sb="4" eb="6">
-      <t>タンドク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「アクセスレベル変更」</t>
+      <t>ガメン</t>
+    </rPh>
     <rPh sb="8" eb="10">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「検索結果」リストから図面を選択する。</t>
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「出力」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>印刷指示画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「戻る」</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザーがログアウト場合。</t>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「検索結果」リストから図面を選択する。
+しかし、選択した図面の印刷権限がない。</t>
+    <rPh sb="11" eb="13">
+      <t>ズメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「検索結果」リストから図面を選択する。かつ、
+選択した図面の印刷権限があり。しかし、
+選択した図面はTIFF図面ではありません。</t>
+    <rPh sb="11" eb="13">
+      <t>ズメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「検索結果」リストから図面を選択する。しかし、選択した図面はTIFF図面ではありません。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「サムネイル表示」ボタンを押下。</t>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「「サムネイルサイズ」ラベル、「サムネイルサイズ」チョイス、「リスト表示」ボタン」の位置は予想通り。
+2.「サムネイル表示」ボタンは非表示する。
+3.「「サムネイルサイズ」ラベル、「サムネイルサイズ」チョイス、「リスト表示」ボタン」は表示する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「サムネイル表示」ボタンの位置は予想通り。
+2.「サムネイル表示」ボタンは表示する。
+3.「「サムネイルサイズ」ラベル、「サムネイルサイズ」チョイス、「リスト表示」ボタン」は非表示する。</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="89" eb="92">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.図面のダウンロードは使用できません。
+2.図面は「NotAccess_thumb.jpg」と一致する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.図面のダウンロードは使用できる。
+2.図面は「NotFound_thumb.jpg」と一致する。</t>
+    <rPh sb="21" eb="23">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.図面のダウンロードは使用できる。
+2.図面は正常に表示する。
+3.ダウンロードのファイルは予想通り。</t>
+    <rPh sb="2" eb="4">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヨソウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ドオ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -830,7 +999,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -865,6 +1034,14 @@
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1029,13 +1206,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1065,9 +1243,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1094,10 +1269,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1106,11 +1287,20 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1151,8 +1341,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
@@ -1172,6 +1368,3036 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>377080</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>166689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD4691D-A7D7-4828-AF17-09CC24D24CA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="7920880" cy="4767264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1532</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>143705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79993082-824B-45DC-8BC2-53DED12BB1D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="5200650"/>
+          <a:ext cx="10974332" cy="5944430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Speech Bubble: Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9762FE70-333F-4D02-A254-2B4F7E9B928C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="7439025"/>
+          <a:ext cx="5257800" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -40755"/>
+            <a:gd name="adj2" fmla="val -117045"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>「サムネイル表示」ボタンの位置は予想通り。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>「サムネイル表示」ボタンは表示する。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>「「サムネイルサイズ」ラベル、「サムネイルサイズ」チョイス、「リスト表示」ボタン」は非表示する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6E0B005-B70E-4818-972F-90D80A5F73D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152649" y="6667500"/>
+          <a:ext cx="752475" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C8BBC8-3F33-4B22-8AA2-D9859C995F8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819276" y="1190625"/>
+          <a:ext cx="571500" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Speech Bubble: Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7072C8C0-3274-4853-9DB8-0BF53C6AD2EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924050" y="1752599"/>
+          <a:ext cx="4876800" cy="581026"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -39974"/>
+            <a:gd name="adj2" fmla="val -121963"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>20240717_DRASAP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>更新プロジェクト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2024_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>第</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>回定例会資料</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>改訂</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>.pptx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>」の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「サムネイル表示」ボタンの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>設定。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1532</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>143705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A08C3B-46FB-A8F1-5971-558DFDC38156}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="5200650"/>
+          <a:ext cx="10974332" cy="5944430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>524543</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>58867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABE3183-1174-F497-8616-A9B03393F1E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="6696743" cy="4659442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Speech Bubble: Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD30352A-9B08-45D4-9C2A-2DEE7541A7E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000249" y="7439025"/>
+          <a:ext cx="5495925" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -40755"/>
+            <a:gd name="adj2" fmla="val -117045"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>「「サムネイルサイズ」ラベル、「サムネイルサイズ」チョイス、「リスト表示」ボタン」の位置は予想通り。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>「サムネイル表示」ボタンは非表示する。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「サムネイルサイズ」ラベル、「サムネイルサイズ」チョイス、「リスト表示」ボタン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>」は表示する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941D81F5-F923-43C4-A235-BBFCD45E579A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352551" y="6667501"/>
+          <a:ext cx="1552574" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D27D8AD-4FDD-4A48-B78A-F509310B303B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990601" y="1028700"/>
+          <a:ext cx="1228724" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Speech Bubble: Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9389DB2D-FDAD-485A-9EC4-9CD1304729A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="1600199"/>
+          <a:ext cx="4876800" cy="581026"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -39974"/>
+            <a:gd name="adj2" fmla="val -121963"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>20240717_DRASAP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>更新プロジェクト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2024_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>第</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>回定例会資料</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>改訂</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>.pptx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>」に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「「サムネイルサイズ」ラベル、「サムネイルサイズ」チョイス、「リスト表示」ボタン」の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>設定。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1532</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>143705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A5B0D2-4DAC-4617-84B7-E1397D97B366}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2400300"/>
+          <a:ext cx="10974332" cy="5944430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Speech Bubble: Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A5AB829-3A3E-4707-8E53-39B7081DCF33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514474" y="6391275"/>
+          <a:ext cx="3733801" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -34633"/>
+            <a:gd name="adj2" fmla="val -151331"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サムネイルサイズの内容はユーザーのサムネイルサイズの内容通り。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>525384</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>105041</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA605B17-9B57-9071-CE25-77427794EC34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="10812384" cy="1905266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5156AA5-E2FD-4D70-8933-78CE12264DF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933575" y="3867150"/>
+          <a:ext cx="238126" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83CF86FF-ED4A-4426-99E4-4186C324F5F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639176" y="1600200"/>
+          <a:ext cx="962024" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Speech Bubble: Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E1BA2EE-54B4-44B6-B196-25009326F611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8858250" y="895349"/>
+          <a:ext cx="2505075" cy="314326"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -41875"/>
+            <a:gd name="adj2" fmla="val 168945"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ユーザーのサムネイるサイズが設定しました。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>239403</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D827C3F-0D6C-45AB-8057-7A471FACBA9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2200275"/>
+          <a:ext cx="9154803" cy="1971950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5A0EA6-0B57-4F1B-A1E4-29AA5115A4F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="2971800"/>
+          <a:ext cx="4362450" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE6975A-9B25-4C15-8011-228C44B011E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="4724400"/>
+          <a:ext cx="542925" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1532</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>143705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D90B77D7-5F7D-5D78-4767-4DFD2F34C64C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="4400550"/>
+          <a:ext cx="10974332" cy="5944430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>525384</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76462</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A7DE1A1-54D4-A78D-F4C6-4FA5ECFEA812}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="10812384" cy="1876687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Speech Bubble: Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E808313E-4ABE-4D0F-AB81-A9CC11E7E3B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781174" y="6372225"/>
+          <a:ext cx="2190751" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -34633"/>
+            <a:gd name="adj2" fmla="val -151331"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サムネイルサイズの内容は「中」です。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6D3123-2357-41E7-9FFB-23D10B3FB51D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933575" y="5867400"/>
+          <a:ext cx="238126" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36C96049-A24D-44E7-8D55-AB016FB8F9D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8629651" y="1628775"/>
+          <a:ext cx="962024" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Speech Bubble: Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB548124-5759-4C69-A3AB-BD9D4582405C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848725" y="923924"/>
+          <a:ext cx="2505075" cy="314326"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -41875"/>
+            <a:gd name="adj2" fmla="val 168945"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ユーザーのサムネイるサイズが設定しません。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>239403</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4931BED3-BF68-4744-B9CF-AAC2548FFB6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2200275"/>
+          <a:ext cx="9154803" cy="1971950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05563E98-4D45-45B0-841F-CBC175FC912D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="2971800"/>
+          <a:ext cx="4362450" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E352CC4A-FAF5-49E6-BB67-0EFEE167A91C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="4733925"/>
+          <a:ext cx="542925" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>459753</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>106158</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88CF8EA-9347-97E5-AFD6-B58997990E57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="4800600"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>553963</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47939</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F66F339-FC33-1D1E-EEF7-7371C61FAAD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="10840963" cy="2248214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518DF46B-1482-4CFC-9D54-919CE1327835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="8029575"/>
+          <a:ext cx="2057400" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A92CB780-AF95-4368-A9B3-4BBB2DB176CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="1647825"/>
+          <a:ext cx="2000249" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Speech Bubble: Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FA4679-C348-46C2-82A2-34C80F22FDE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914650" y="1676399"/>
+          <a:ext cx="1438275" cy="314326"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -53796"/>
+            <a:gd name="adj2" fmla="val 126521"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>参照権限がない場合。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38488</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0704771-B504-0FC9-A8D1-7CBE3FF45B5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2600325"/>
+          <a:ext cx="2781688" cy="2010056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Speech Bubble: Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5925D500-3A3F-42BC-9707-7CA825F02DC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="3124200"/>
+          <a:ext cx="1685925" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -54633"/>
+            <a:gd name="adj2" fmla="val 168669"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>NotAccess_thumb.jpg</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Speech Bubble: Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27412562-CE4B-4C33-8FEC-151A09DDDAD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="10115550"/>
+          <a:ext cx="2981325" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -33459"/>
+            <a:gd name="adj2" fmla="val -84664"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>図面のダウンロードは使用できません。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>図面は「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>NotAccess_thumb.jpg</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>」と一致する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>573016</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85988</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4725B6FB-CE6E-D52A-1602-430C6B517AAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="10860016" cy="1886213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>459753</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>106158</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF829F-145B-4173-90CB-069A09AD935A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="4800600"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C57DEC2-0094-462C-9623-E855E275DDA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="8029575"/>
+          <a:ext cx="2057400" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB849C9A-4126-469B-80A1-65166C27BA1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="1647825"/>
+          <a:ext cx="2057400" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Speech Bubble: Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67089FBB-6402-4BF0-BFCF-354BE040B2C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3019425" y="895348"/>
+          <a:ext cx="1695450" cy="619127"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -58290"/>
+            <a:gd name="adj2" fmla="val 103444"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>参照権限があり場合。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>かつ、図面があり場合。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Speech Bubble: Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC62FBC-21C6-4818-A1D0-5FBE862D4F5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="10115550"/>
+          <a:ext cx="2981325" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -33459"/>
+            <a:gd name="adj2" fmla="val -84664"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>図面のダウンロードは使用できません。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>図面は「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>NotAccess_thumb.jpg</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>」と一致する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1437,10 +4663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -1459,19 +4685,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -1481,10 +4707,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1492,26 +4718,26 @@
         <v>1</v>
       </c>
       <c r="E3" s="7">
-        <v>43781</v>
+        <v>45525</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:16" ht="37.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
@@ -1523,16 +4749,16 @@
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="9" t="s">
         <v>7</v>
       </c>
@@ -1550,902 +4776,1291 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="10">
-        <f>ROW(A1)</f>
+      <c r="A7" s="43">
+        <f t="shared" ref="A7:A43" si="0">ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="15"/>
+    </row>
+    <row r="8" spans="1:16" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="16"/>
-    </row>
-    <row r="8" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="10">
-        <f t="shared" ref="A8:A38" si="0">ROW(A2)</f>
-        <v>2</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="16"/>
+      <c r="F8" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="15"/>
     </row>
     <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="10">
+      <c r="A9" s="43">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="16"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="15"/>
     </row>
     <row r="10" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="10">
+      <c r="A10" s="43">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="16"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="10">
+      <c r="A11" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="16"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="15"/>
     </row>
-    <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="10">
+    <row r="12" spans="1:16" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="43">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="16"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="15"/>
     </row>
     <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="10">
+      <c r="A13" s="43">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="16"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="15"/>
     </row>
     <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="10">
+      <c r="A14" s="43">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="16"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="15"/>
     </row>
-    <row r="15" spans="1:16" ht="111" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="10">
+    <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="43">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="16"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="15"/>
     </row>
-    <row r="16" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="10">
+    <row r="16" spans="1:16" ht="111" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="43">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="16"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="15"/>
     </row>
-    <row r="17" spans="1:16" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A17" s="10">
+    <row r="17" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="43">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="16"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="15"/>
     </row>
-    <row r="18" spans="1:16" ht="126.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="10">
+    <row r="18" spans="1:16" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A18" s="43">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="11" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="14"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="16"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="15"/>
     </row>
-    <row r="19" spans="1:16" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A19" s="10">
+    <row r="19" spans="1:16" ht="126.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="43">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="16"/>
+      <c r="F19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="13"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="15"/>
     </row>
     <row r="20" spans="1:16" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A20" s="10">
+      <c r="A20" s="43">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="16"/>
+      <c r="B20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="15"/>
     </row>
-    <row r="21" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A21" s="10">
+    <row r="21" spans="1:16" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="43">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="M21" s="14"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="16"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="13"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="15"/>
     </row>
-    <row r="22" spans="1:16" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A22" s="10">
+    <row r="22" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="43">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="L22" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="M22" s="14"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="16"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="15"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A23" s="10">
+    <row r="23" spans="1:16" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A23" s="43">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="16"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="13"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="15"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A24" s="10">
+    <row r="24" spans="1:16" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A24" s="43">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="16"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="M24" s="13"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="15"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A25" s="10">
+    <row r="25" spans="1:16" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A25" s="43">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="16"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="15"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A26" s="10">
+    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="43">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="16"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M26" s="13"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="15"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A27" s="10">
+    <row r="27" spans="1:16" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A27" s="43">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="16"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="15"/>
     </row>
-    <row r="28" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A28" s="10">
+    <row r="28" spans="1:16" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A28" s="43">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="M28" s="14"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="16"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="15"/>
     </row>
-    <row r="29" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="10">
+    <row r="29" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A29" s="43">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="M29" s="14"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="16"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" s="13"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="15"/>
     </row>
-    <row r="30" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A30" s="10">
+    <row r="30" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="43">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="M30" s="14"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="16"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30" s="13"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="15"/>
     </row>
-    <row r="31" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A31" s="10">
+    <row r="31" spans="1:16" ht="63" x14ac:dyDescent="0.4">
+      <c r="A31" s="43">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="L31" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M31" s="14"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="16"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M31" s="13"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="15"/>
     </row>
     <row r="32" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A32" s="10">
+      <c r="A32" s="43">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L32" s="21"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="16"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32" s="13"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="15"/>
     </row>
-    <row r="33" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="10">
+    <row r="33" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A33" s="43">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L33" s="22"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="16"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="M33" s="13"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="15"/>
     </row>
     <row r="34" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A34" s="10">
+      <c r="A34" s="43">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="L34" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="M34" s="14"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="16"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L34" s="26"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="15"/>
     </row>
-    <row r="35" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A35" s="10">
+    <row r="35" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="43">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L35" s="21"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="16"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L35" s="23"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="15"/>
     </row>
-    <row r="36" spans="1:16" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A36" s="10">
+    <row r="36" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A36" s="43">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L36" s="22"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="16"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="M36" s="13"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="15"/>
     </row>
-    <row r="37" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A37" s="10">
+    <row r="37" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="43">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M37" s="14"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="16"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L37" s="23"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="15"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A38" s="10">
+    <row r="38" spans="1:16" ht="63" x14ac:dyDescent="0.4">
+      <c r="A38" s="43">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="11" t="s">
+      <c r="B38" s="11"/>
+      <c r="C38" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="L38" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11" t="s">
+      <c r="M38" s="13"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="15"/>
+    </row>
+    <row r="39" spans="1:16" ht="63" x14ac:dyDescent="0.4">
+      <c r="A39" s="43">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="L39" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M39" s="13"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="15"/>
+    </row>
+    <row r="40" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A40" s="43">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M40" s="13"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="15"/>
+    </row>
+    <row r="41" spans="1:16" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A41" s="43">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M41" s="13"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="15"/>
+    </row>
+    <row r="42" spans="1:16" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A42" s="43">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="L42" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="M42" s="13"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="15"/>
+    </row>
+    <row r="43" spans="1:16" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A43" s="43">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="L38" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="M38" s="14"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="16"/>
+      <c r="F43" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="20">
     <mergeCell ref="D6:K6"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="L33:L35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L36:L37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A7" location="No.1!A1" display="No.1!A1" xr:uid="{719A0EEF-B304-4CEB-B5DE-B3CF14E870B3}"/>
+    <hyperlink ref="A8:A43" location="No.1!A1" display="No.1!A1" xr:uid="{7CABF4BA-6785-4604-83D9-55822A65FCCB}"/>
+    <hyperlink ref="A8" location="No.2!A1" display="No.2!A1" xr:uid="{00FDF542-9530-40A5-B9D6-E60A0D70C718}"/>
+    <hyperlink ref="A9" location="No.3!A1" display="No.3!A1" xr:uid="{5CDFDEF7-B44E-4296-BC3E-C575B818FC27}"/>
+    <hyperlink ref="A10" location="No.4!A1" display="No.4!A1" xr:uid="{76D4050E-BD5B-44C8-8951-229C0E0DF593}"/>
+    <hyperlink ref="A11" location="No.5!A1" display="No.5!A1" xr:uid="{E0C8C750-3273-4701-9EBE-14E31AEDA9C9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3674DF93-D47B-461A-81DB-99612FA866C9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="44"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AE080A-E383-40D3-B7EC-9B75BF62226F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="44"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1271F6-B459-4BC2-B6A3-23AAE118B748}">
+  <dimension ref="A11:A35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="11" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C565D1C-A69E-458B-80AA-401E635448E3}">
+  <dimension ref="A11:A35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="11" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623B2A3F-7B99-4DCA-BAD5-BFCC4931752B}">
+  <dimension ref="A11:A35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="11" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716FFF27-E99F-47A9-A397-5251FA12A585}">
+  <dimension ref="A11:A35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="11" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>